--- a/biology/Zoologie/Achaeus_japonicus/Achaeus_japonicus.xlsx
+++ b/biology/Zoologie/Achaeus_japonicus/Achaeus_japonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crabe orang-outang
 Achaeus japonicus, communément nommé Crabe orang-outang appartient à la famille des Inachidae, les crabes-araignées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace d'Achaeus japonicus est de forme ovale et ne dépasse guère 1,2 cm de long. Ce crabe est doté de longues pattes griffues sauf la paire antérieure qui est plus petite et terminée par des pinces. Les yeux pédonculés sont rouges. Et le corps couvert de longs poils rouge-orangé. Cependant, il est possible d'observer certains individus sans poils, le corps est alors rayé brun et blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace d'Achaeus japonicus est de forme ovale et ne dépasse guère 1,2 cm de long. Ce crabe est doté de longues pattes griffues sauf la paire antérieure qui est plus petite et terminée par des pinces. Les yeux pédonculés sont rouges. Et le corps couvert de longs poils rouge-orangé. Cependant, il est possible d'observer certains individus sans poils, le corps est alors rayé brun et blanc.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achaeus japonicus se rencontre surtout dans la zone tropicale centrale du bassin Indo-Pacifique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achaeus japonicus se rencontre surtout dans la zone tropicale centrale du bassin Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achaeus japonicus vit généralement en association avec certaines espèces de corail dur qui appartiennent à la famille des Caryophylliidae comme ceux du genre Euphyllia et également avec le corail à bulles[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achaeus japonicus vit généralement en association avec certaines espèces de corail dur qui appartiennent à la famille des Caryophylliidae comme ceux du genre Euphyllia et également avec le corail à bulles.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achaeus japonicus se nourrit de plancton et de particules en suspension dans l'eau[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achaeus japonicus se nourrit de plancton et de particules en suspension dans l'eau.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Achaeus japonicus est souvent observé en couple sur le corail avec lequel il est associé. Il est actif la nuit.
 </t>
